--- a/ClassProject/EVregistrations.xlsx
+++ b/ClassProject/EVregistrations.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\SavvyCoders\activities\ClassProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74104B-8DAE-4FCB-8422-8A2027B0A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCAE18-4F11-4A4F-8371-E8A19F925E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="EV Registration Counts in 2022" sheetId="3" r:id="rId1"/>
-    <sheet name="LAB" sheetId="4" r:id="rId2"/>
-    <sheet name="Condensed" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="EVRegistrations" sheetId="3" r:id="rId1"/>
+    <sheet name="Condensed" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>Electric Vehicle Registrations by State</t>
   </si>
@@ -227,24 +227,36 @@
     <t>Only all-electric vehicles are included in this chart; plug-in hybrid electric vehicles (PHEVs) are not included.</t>
   </si>
   <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>AVG</t>
+    <t>EVRegPer1000residents</t>
+  </si>
+  <si>
+    <t>EVRegPercTotalReg</t>
+  </si>
+  <si>
+    <t>EVper1000TotalReg</t>
+  </si>
+  <si>
+    <t>StatePopulations</t>
+  </si>
+  <si>
+    <t>TotalRegCount</t>
+  </si>
+  <si>
+    <t>EV Registration Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_);[Red]\(#,##0\);\—_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +311,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="P-AVGARD"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="P-AVGARD"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -390,12 +421,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -407,175 +444,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{3C024DA2-05CA-4D4F-BCD8-F795A193844D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{E7601616-FB89-4821-AA7B-78127F53C393}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="5" xr:uid="{205AECEA-B464-4CF8-9AEB-83CC376E319E}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{D7B50D99-6C3E-4FBE-9214-11941CBF138E}"/>
+    <cellStyle name="Normal 8 2" xfId="7" xr:uid="{E94E9704-C545-4CBC-A46F-256581C520F1}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="8" xr:uid="{3364B938-6BB6-4002-BAFE-D594109F0A97}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -766,7 +686,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Electric Vehicle Registrations by State</a:t>
+              <a:t>Electric Vehicle Registrations/1000 vehicles, by State</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -799,7 +719,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0858998528965707E-2"/>
+          <c:y val="7.1275389877145739E-2"/>
+          <c:w val="0.94374434785520411"/>
+          <c:h val="0.80106803273206628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -809,11 +739,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EV Registration Counts in 2022'!$C$3</c:f>
+              <c:f>EVRegistrations!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Registration Count </c:v>
+                  <c:v>EVper1000TotalReg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -830,7 +760,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EV Registration Counts in 2022'!$B$4:$B$54</c:f>
+              <c:f>EVRegistrations!$A$2:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
@@ -991,162 +921,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EV Registration Counts in 2022'!$C$4:$C$54</c:f>
+              <c:f>EVRegistrations!$G$2:$G$52</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>8730</c:v>
+                  <c:v>4.2396361451938818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>13.962386092623451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65780</c:v>
+                  <c:v>29.125686414044193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5140</c:v>
+                  <c:v>5.3617663782069798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>903620</c:v>
+                  <c:v>63.329587525252656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59910</c:v>
+                  <c:v>40.038502779659254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22030</c:v>
+                  <c:v>19.682337090316796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5390</c:v>
+                  <c:v>30.284293187480866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5860</c:v>
+                  <c:v>29.410363860495508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167990</c:v>
+                  <c:v>21.389157629796639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60120</c:v>
+                  <c:v>17.054619793893853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19760</c:v>
+                  <c:v>42.597820239576677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5940</c:v>
+                  <c:v>10.421703463954694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66880</c:v>
+                  <c:v>16.242513198413501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17710</c:v>
+                  <c:v>8.5781221116206172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6220</c:v>
+                  <c:v>5.5090025182639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7550</c:v>
+                  <c:v>8.8099180636590688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7560</c:v>
+                  <c:v>4.8231667519762098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5880</c:v>
+                  <c:v>4.5955399845895242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4990</c:v>
+                  <c:v>12.003139932803261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46060</c:v>
+                  <c:v>22.182694343002662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49440</c:v>
+                  <c:v>24.96423150391799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33150</c:v>
+                  <c:v>11.451456864413833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24330</c:v>
+                  <c:v>14.063606616148654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2420</c:v>
+                  <c:v>2.7081521419858432</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17870</c:v>
+                  <c:v>9.3243044721033659</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3260</c:v>
+                  <c:v>7.0311512930665829</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4570</c:v>
+                  <c:v>7.5549710461805226</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32950</c:v>
+                  <c:v>31.330921747894447</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6990</c:v>
+                  <c:v>15.257311765293824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87030</c:v>
+                  <c:v>34.327999332157709</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7080</c:v>
+                  <c:v>11.425073267183166</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84670</c:v>
+                  <c:v>27.207324666200023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45590</c:v>
+                  <c:v>13.897326540742567</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>640</c:v>
+                  <c:v>3.0147183385925591</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34060</c:v>
+                  <c:v>8.3347181725519324</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16290</c:v>
+                  <c:v>15.420783225585426</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46980</c:v>
+                  <c:v>34.617259336484402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47440</c:v>
+                  <c:v>12.109497392405817</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4340</c:v>
+                  <c:v>12.826931718179642</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13490</c:v>
+                  <c:v>7.0277649070598809</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1170</c:v>
+                  <c:v>3.6827590458190413</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22040</c:v>
+                  <c:v>9.3925255542716855</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>149000</c:v>
+                  <c:v>19.141665300287258</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28050</c:v>
+                  <c:v>28.311703705056004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5260</c:v>
+                  <c:v>29.218083237074872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56610</c:v>
+                  <c:v>19.006907450318586</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>104050</c:v>
+                  <c:v>34.95042472602978</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1870</c:v>
+                  <c:v>5.2026867984156544</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15700</c:v>
+                  <c:v>8.6006210749711247</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>840</c:v>
+                  <c:v>4.5020262055882174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1096,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-39"/>
+        <c:overlap val="-27"/>
         <c:axId val="547433752"/>
         <c:axId val="547433096"/>
       </c:barChart>
@@ -1222,7 +1152,6 @@
         <c:axId val="547433096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1262,7 +1191,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> Registration Count</a:t>
+                  <a:t> EV Registration Count per 1000 vehicles</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1293,7 +1222,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1322,12 +1251,12 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="547433752"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1398,12 +1327,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1411,8 +1337,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>California</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Electric Vehicle Registrations/1000 residents, by State</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1430,12 +1360,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1448,7 +1375,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0858998528965707E-2"/>
+          <c:y val="7.1275389877145739E-2"/>
+          <c:w val="0.94374434785520411"/>
+          <c:h val="0.80106803273206628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1456,6 +1393,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EVRegistrations!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVRegPer1000residents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1468,30 +1416,330 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>LAB!$A$8</c:f>
+              <c:f>EVRegistrations!$A$2:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Delaware</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Wyoming</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>LAB!$B$8</c:f>
+              <c:f>EVRegistrations!$E$2:$E$52</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>903620</c:v>
+                  <c:v>1.8120762740888867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7049292873815736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.025122243091383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7441252838445136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.737670397289826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.526518110351356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1329830044267171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8774780276099712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2467525909842578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.67636631981172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0679734139597299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.18822664399614</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.713744104274932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.197087175620128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7069531400580003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.020716568186514</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6188489135765987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7247389621269227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2779694369696997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7560169660565963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8229878310587893</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4264441797722229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3522013901472985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5192295725901017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81089820379346222</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9644616292163537</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2393652433995448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4627926991399627</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.93155812026721</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.291169499852014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.8068889140800248</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4037070600480273</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3211480055709997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6757032143793005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90789800333368798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9462699323032635</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2656809600584049</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.045094495535393</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7182387054384494</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1205713352550006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.85365368151998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4016877758449662</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.4163312725291473</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7105554021030098</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.8141744669818625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.3977533614961413</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.9161996307695013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.081627041581951</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.008694732833445</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7425056230099369</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4602321421431688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB1B-431B-B915-BF24D217CD20}"/>
+              <c16:uniqueId val="{00000000-4499-41AF-B56A-86C23DF84B80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1505,11 +1753,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="308846287"/>
-        <c:axId val="1959047631"/>
+        <c:axId val="547433752"/>
+        <c:axId val="547433096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308846287"/>
+        <c:axId val="547433752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,12 +1785,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1552,15 +1797,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1959047631"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="547433096"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1959047631"/>
+        <c:axId val="547433096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1825,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> EV Registration Count per 1000 residents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1596,12 +1894,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1611,8 +1906,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308846287"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="547433752"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2757,16 +3052,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2809</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39158</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2795,15 +3090,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>149572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>134620</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2865,34 +3160,31 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21168</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B8D5FE-C09B-E29B-6A30-7AAADF4C646C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90155C4C-92CF-452A-A190-84174749AA2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2900,7 +3192,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2910,20 +3202,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="B3:C55" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="A1:B53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="Registration Count" dataDxfId="7" dataCellStyle="Comma"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BC1062DB-4375-41D0-8249-EC1CC6C89FE9}" name="Table234" displayName="Table234" ref="A3:B55" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{C5ED9F3C-DA37-4431-85A2-A81F3C1942D3}" name="State" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7C53D28A-A121-4660-8622-D2B006CA1CC8}" name="Registration Count" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="EV Registration Count" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3226,611 +3508,1569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAD6DA-77B8-B749-BB62-A3A394A9DB55}">
-  <dimension ref="B2:AM55"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" customWidth="1"/>
-    <col min="25" max="25" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="27" max="27" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:39" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:41">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.5">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="B2" s="13">
         <v>8730</v>
       </c>
-    </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="C2" s="19">
+        <v>2059138.9687760035</v>
+      </c>
+      <c r="D2" s="28">
+        <v>4817678</v>
+      </c>
+      <c r="E2" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D2*1000</f>
+        <v>1.8120762740888867</v>
+      </c>
+      <c r="F2" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C2</f>
+        <v>4.2396361451938818E-3</v>
+      </c>
+      <c r="G2" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C2*1000</f>
+        <v>4.2396361451938818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.5">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="B3" s="13">
         <v>1970</v>
       </c>
-    </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="C3" s="20">
+        <v>141093.36233301714</v>
+      </c>
+      <c r="D3" s="28">
+        <v>728300</v>
+      </c>
+      <c r="E3" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D3*1000</f>
+        <v>2.7049292873815736</v>
+      </c>
+      <c r="F3" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C3</f>
+        <v>1.3962386092623451E-2</v>
+      </c>
+      <c r="G3" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C3*1000</f>
+        <v>13.962386092623451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.5">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="B4" s="13">
         <v>65780</v>
       </c>
-    </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+      <c r="C4" s="20">
+        <v>2258487.5448044846</v>
+      </c>
+      <c r="D4" s="28">
+        <v>6561516</v>
+      </c>
+      <c r="E4" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D4*1000</f>
+        <v>10.025122243091383</v>
+      </c>
+      <c r="F4" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C4</f>
+        <v>2.9125686414044193E-2</v>
+      </c>
+      <c r="G4" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C4*1000</f>
+        <v>29.125686414044193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.5">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15">
+      <c r="B5" s="13">
         <v>5140</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="C5" s="19">
+        <v>958639.30604877626</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2947036</v>
+      </c>
+      <c r="E5" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D5*1000</f>
+        <v>1.7441252838445136</v>
+      </c>
+      <c r="F5" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C5</f>
+        <v>5.3617663782069801E-3</v>
+      </c>
+      <c r="G5" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C5*1000</f>
+        <v>5.3617663782069798</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:41" ht="15.5">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15">
+      <c r="B6" s="13">
         <v>903620</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-    </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="C6" s="20">
+        <v>14268528.113177458</v>
+      </c>
+      <c r="D6" s="28">
+        <v>38066920</v>
+      </c>
+      <c r="E6" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D6*1000</f>
+        <v>23.737670397289826</v>
+      </c>
+      <c r="F6" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C6</f>
+        <v>6.3329587525252654E-2</v>
+      </c>
+      <c r="G6" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C6*1000</f>
+        <v>63.329587525252656</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+    </row>
+    <row r="7" spans="1:41" ht="15.5">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15">
+      <c r="B7" s="13">
         <v>59910</v>
       </c>
-    </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="C7" s="20">
+        <v>1496309.6979349602</v>
+      </c>
+      <c r="D7" s="28">
+        <v>5197580</v>
+      </c>
+      <c r="E7" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D7*1000</f>
+        <v>11.526518110351356</v>
+      </c>
+      <c r="F7" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C7</f>
+        <v>4.003850277965925E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C7*1000</f>
+        <v>40.038502779659254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.5">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="B8" s="13">
         <v>22030</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+      <c r="C8" s="20">
+        <v>1119277.6497481181</v>
+      </c>
+      <c r="D8" s="28">
+        <v>3592053</v>
+      </c>
+      <c r="E8" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D8*1000</f>
+        <v>6.1329830044267171</v>
+      </c>
+      <c r="F8" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C8</f>
+        <v>1.9682337090316797E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C8*1000</f>
+        <v>19.682337090316796</v>
+      </c>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:41" ht="15.5">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15">
+      <c r="B9" s="13">
         <v>5390</v>
       </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-    </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="C9" s="19">
+        <v>177980.04948083634</v>
+      </c>
+      <c r="D9" s="28">
+        <v>917060</v>
+      </c>
+      <c r="E9" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D9*1000</f>
+        <v>5.8774780276099712</v>
+      </c>
+      <c r="F9" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C9</f>
+        <v>3.0284293187480868E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C9*1000</f>
+        <v>30.284293187480866</v>
+      </c>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:41" ht="15.5">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="B10" s="13">
         <v>5860</v>
       </c>
-    </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+      <c r="C10" s="19">
+        <v>199249.49000278267</v>
+      </c>
+      <c r="D10" s="28">
+        <v>633736</v>
+      </c>
+      <c r="E10" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D10*1000</f>
+        <v>9.2467525909842578</v>
+      </c>
+      <c r="F10" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C10</f>
+        <v>2.9410363860495507E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C10*1000</f>
+        <v>29.410363860495508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.5">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15">
+      <c r="B11" s="13">
         <v>167990</v>
       </c>
-    </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="C11" s="20">
+        <v>7853979.2406774275</v>
+      </c>
+      <c r="D11" s="28">
+        <v>19361792</v>
+      </c>
+      <c r="E11" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D11*1000</f>
+        <v>8.67636631981172</v>
+      </c>
+      <c r="F11" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C11</f>
+        <v>2.1389157629796637E-2</v>
+      </c>
+      <c r="G11" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C11*1000</f>
+        <v>21.389157629796639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.5">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15">
+      <c r="B12" s="13">
         <v>60120</v>
       </c>
-    </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+      <c r="C12" s="20">
+        <v>3525144.5488995919</v>
+      </c>
+      <c r="D12" s="28">
+        <v>9907756</v>
+      </c>
+      <c r="E12" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D12*1000</f>
+        <v>6.0679734139597299</v>
+      </c>
+      <c r="F12" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C12</f>
+        <v>1.7054619793893853E-2</v>
+      </c>
+      <c r="G12" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C12*1000</f>
+        <v>17.054619793893853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.5">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15">
+      <c r="B13" s="13">
         <v>19760</v>
       </c>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="C13" s="20">
+        <v>463873.50077695824</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1392704</v>
+      </c>
+      <c r="E13" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D13*1000</f>
+        <v>14.18822664399614</v>
+      </c>
+      <c r="F13" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C13</f>
+        <v>4.2597820239576679E-2</v>
+      </c>
+      <c r="G13" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C13*1000</f>
+        <v>42.597820239576677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15.5">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15">
+      <c r="B14" s="13">
         <v>5940</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
+      <c r="C14" s="20">
+        <v>569964.40366438578</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1599464</v>
+      </c>
+      <c r="E14" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D14*1000</f>
+        <v>3.713744104274932</v>
+      </c>
+      <c r="F14" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C14</f>
+        <v>1.0421703463954693E-2</v>
+      </c>
+      <c r="G14" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C14*1000</f>
+        <v>10.421703463954694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.5">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="15">
+      <c r="B15" s="13">
         <v>66880</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+      <c r="C15" s="20">
+        <v>4117589.389216722</v>
+      </c>
+      <c r="D15" s="28">
+        <v>12868747</v>
+      </c>
+      <c r="E15" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D15*1000</f>
+        <v>5.197087175620128</v>
+      </c>
+      <c r="F15" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C15</f>
+        <v>1.6242513198413501E-2</v>
+      </c>
+      <c r="G15" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C15*1000</f>
+        <v>16.242513198413501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15.5">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15">
+      <c r="B16" s="13">
         <v>17710</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+      <c r="C16" s="20">
+        <v>2064554.4292274183</v>
+      </c>
+      <c r="D16" s="28">
+        <v>6542411</v>
+      </c>
+      <c r="E16" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D16*1000</f>
+        <v>2.7069531400580003</v>
+      </c>
+      <c r="F16" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C16</f>
+        <v>8.5781221116206178E-3</v>
+      </c>
+      <c r="G16" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C16*1000</f>
+        <v>8.5781221116206172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15">
+      <c r="B17" s="13">
         <v>6220</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
+      <c r="C17" s="20">
+        <v>1129061.0195546185</v>
+      </c>
+      <c r="D17" s="28">
+        <v>3078116</v>
+      </c>
+      <c r="E17" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D17*1000</f>
+        <v>2.020716568186514</v>
+      </c>
+      <c r="F17" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C17</f>
+        <v>5.5090025182639004E-3</v>
+      </c>
+      <c r="G17" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C17*1000</f>
+        <v>5.5090025182639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.5">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15">
+      <c r="B18" s="13">
         <v>7550</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
+      <c r="C18" s="19">
+        <v>856988.6740653998</v>
+      </c>
+      <c r="D18" s="28">
+        <v>2882946</v>
+      </c>
+      <c r="E18" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D18*1000</f>
+        <v>2.6188489135765987</v>
+      </c>
+      <c r="F18" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C18</f>
+        <v>8.8099180636590693E-3</v>
+      </c>
+      <c r="G18" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C18*1000</f>
+        <v>8.8099180636590688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="B19" s="13">
         <v>7560</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+      <c r="C19" s="20">
+        <v>1567434.9216523396</v>
+      </c>
+      <c r="D19" s="28">
+        <v>4383272</v>
+      </c>
+      <c r="E19" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D19*1000</f>
+        <v>1.7247389621269227</v>
+      </c>
+      <c r="F19" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C19</f>
+        <v>4.8231667519762099E-3</v>
+      </c>
+      <c r="G19" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C19*1000</f>
+        <v>4.8231667519762098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15">
+      <c r="B20" s="13">
         <v>5880</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="C20" s="19">
+        <v>1279501.4339376276</v>
+      </c>
+      <c r="D20" s="28">
+        <v>4601049</v>
+      </c>
+      <c r="E20" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D20*1000</f>
+        <v>1.2779694369696997</v>
+      </c>
+      <c r="F20" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C20</f>
+        <v>4.5955399845895245E-3</v>
+      </c>
+      <c r="G20" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C20*1000</f>
+        <v>4.5955399845895242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.5">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15">
+      <c r="B21" s="13">
         <v>4990</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+      <c r="C21" s="19">
+        <v>415724.55440287577</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1328535</v>
+      </c>
+      <c r="E21" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D21*1000</f>
+        <v>3.7560169660565963</v>
+      </c>
+      <c r="F21" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C21</f>
+        <v>1.2003139932803261E-2</v>
+      </c>
+      <c r="G21" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C21*1000</f>
+        <v>12.003139932803261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.5">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15">
+      <c r="B22" s="13">
         <v>46060</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+      <c r="C22" s="20">
+        <v>2076393.394228471</v>
+      </c>
+      <c r="D22" s="28">
+        <v>5887776</v>
+      </c>
+      <c r="E22" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D22*1000</f>
+        <v>7.8229878310587893</v>
+      </c>
+      <c r="F22" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C22</f>
+        <v>2.2182694343002664E-2</v>
+      </c>
+      <c r="G22" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C22*1000</f>
+        <v>22.182694343002662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.5">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="15">
+      <c r="B23" s="13">
         <v>49440</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+      <c r="C23" s="21">
+        <v>1980433.4850940907</v>
+      </c>
+      <c r="D23" s="28">
+        <v>6657291</v>
+      </c>
+      <c r="E23" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D23*1000</f>
+        <v>7.4264441797722229</v>
+      </c>
+      <c r="F23" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C23</f>
+        <v>2.4964231503917991E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C23*1000</f>
+        <v>24.96423150391799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.5">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15">
+      <c r="B24" s="13">
         <v>33150</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
+      <c r="C24" s="19">
+        <v>2894828.1771043334</v>
+      </c>
+      <c r="D24" s="28">
+        <v>9889024</v>
+      </c>
+      <c r="E24" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D24*1000</f>
+        <v>3.3522013901472985</v>
+      </c>
+      <c r="F24" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C24</f>
+        <v>1.1451456864413833E-2</v>
+      </c>
+      <c r="G24" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C24*1000</f>
+        <v>11.451456864413833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.5">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="15">
+      <c r="B25" s="13">
         <v>24330</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+      <c r="C25" s="19">
+        <v>1729997.195176298</v>
+      </c>
+      <c r="D25" s="28">
+        <v>5383661</v>
+      </c>
+      <c r="E25" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D25*1000</f>
+        <v>4.5192295725901017</v>
+      </c>
+      <c r="F25" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C25</f>
+        <v>1.4063606616148654E-2</v>
+      </c>
+      <c r="G25" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C25*1000</f>
+        <v>14.063606616148654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.5">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="15">
+      <c r="B26" s="13">
         <v>2420</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
+      <c r="C26" s="20">
+        <v>893598.24453047675</v>
+      </c>
+      <c r="D26" s="28">
+        <v>2984345</v>
+      </c>
+      <c r="E26" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D26*1000</f>
+        <v>0.81089820379346222</v>
+      </c>
+      <c r="F26" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C26</f>
+        <v>2.7081521419858434E-3</v>
+      </c>
+      <c r="G26" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C26*1000</f>
+        <v>2.7081521419858432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.5">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="15">
+      <c r="B27" s="13">
         <v>17870</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+      <c r="C27" s="19">
+        <v>1916496.8339959097</v>
+      </c>
+      <c r="D27" s="28">
+        <v>6028076</v>
+      </c>
+      <c r="E27" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D27*1000</f>
+        <v>2.9644616292163537</v>
+      </c>
+      <c r="F27" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C27</f>
+        <v>9.3243044721033654E-3</v>
+      </c>
+      <c r="G27" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C27*1000</f>
+        <v>9.3243044721033659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.5">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="15">
+      <c r="B28" s="13">
         <v>3260</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="C28" s="20">
+        <v>463650.95332462632</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1006370</v>
+      </c>
+      <c r="E28" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D28*1000</f>
+        <v>3.2393652433995448</v>
+      </c>
+      <c r="F28" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C28</f>
+        <v>7.0311512930665825E-3</v>
+      </c>
+      <c r="G28" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C28*1000</f>
+        <v>7.0311512930665829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.5">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="15">
+      <c r="B29" s="13">
         <v>4570</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+      <c r="C29" s="20">
+        <v>604899.73714861565</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1855617</v>
+      </c>
+      <c r="E29" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D29*1000</f>
+        <v>2.4627926991399627</v>
+      </c>
+      <c r="F29" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C29</f>
+        <v>7.5549710461805227E-3</v>
+      </c>
+      <c r="G29" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C29*1000</f>
+        <v>7.5549710461805226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.5">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="15">
+      <c r="B30" s="13">
         <v>32950</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
+      <c r="C30" s="19">
+        <v>1051676.6874952973</v>
+      </c>
+      <c r="D30" s="28">
+        <v>2761584</v>
+      </c>
+      <c r="E30" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D30*1000</f>
+        <v>11.93155812026721</v>
+      </c>
+      <c r="F30" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C30</f>
+        <v>3.1330921747894445E-2</v>
+      </c>
+      <c r="G30" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C30*1000</f>
+        <v>31.330921747894447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.5">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="15">
+      <c r="B31" s="13">
         <v>6990</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
+      <c r="C31" s="19">
+        <v>458140.99544720072</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1321069</v>
+      </c>
+      <c r="E31" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D31*1000</f>
+        <v>5.291169499852014</v>
+      </c>
+      <c r="F31" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C31</f>
+        <v>1.5257311765293824E-2</v>
+      </c>
+      <c r="G31" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C31*1000</f>
+        <v>15.257311765293824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.5">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="15">
+      <c r="B32" s="13">
         <v>87030</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
+      <c r="C32" s="20">
+        <v>2535248.2432167907</v>
+      </c>
+      <c r="D32" s="28">
+        <v>8874374</v>
+      </c>
+      <c r="E32" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D32*1000</f>
+        <v>9.8068889140800248</v>
+      </c>
+      <c r="F32" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C32</f>
+        <v>3.4327999332157709E-2</v>
+      </c>
+      <c r="G32" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C32*1000</f>
+        <v>34.327999332157709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.5">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="15">
+      <c r="B33" s="13">
         <v>7080</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B36" s="4" t="s">
+      <c r="C33" s="20">
+        <v>619689.68026981968</v>
+      </c>
+      <c r="D33" s="28">
+        <v>2080085</v>
+      </c>
+      <c r="E33" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D33*1000</f>
+        <v>3.4037070600480273</v>
+      </c>
+      <c r="F33" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C33</f>
+        <v>1.1425073267183165E-2</v>
+      </c>
+      <c r="G33" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C33*1000</f>
+        <v>11.425073267183166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.5">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="15">
+      <c r="B34" s="13">
         <v>84670</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
+      <c r="C34" s="20">
+        <v>3112029.6110990481</v>
+      </c>
+      <c r="D34" s="28">
+        <v>19594330</v>
+      </c>
+      <c r="E34" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D34*1000</f>
+        <v>4.3211480055709997</v>
+      </c>
+      <c r="F34" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C34</f>
+        <v>2.7207324666200024E-2</v>
+      </c>
+      <c r="G34" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C34*1000</f>
+        <v>27.207324666200023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.5">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="15">
+      <c r="B35" s="13">
         <v>45590</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="C35" s="20">
+        <v>3280487.068238955</v>
+      </c>
+      <c r="D35" s="28">
+        <v>9750405</v>
+      </c>
+      <c r="E35" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D35*1000</f>
+        <v>4.6757032143793005</v>
+      </c>
+      <c r="F35" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C35</f>
+        <v>1.3897326540742567E-2</v>
+      </c>
+      <c r="G35" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C35*1000</f>
+        <v>13.897326540742567</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.5">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="13">
+        <v>640</v>
+      </c>
+      <c r="C36" s="20">
+        <v>212291.80577406386</v>
+      </c>
+      <c r="D36" s="28">
+        <v>704925</v>
+      </c>
+      <c r="E36" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D36*1000</f>
+        <v>0.90789800333368798</v>
+      </c>
+      <c r="F36" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C36</f>
+        <v>3.0147183385925589E-3</v>
+      </c>
+      <c r="G36" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C36*1000</f>
+        <v>3.0147183385925591</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.5">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="13">
+        <v>34060</v>
+      </c>
+      <c r="C37" s="20">
+        <v>4086520.8990709609</v>
+      </c>
+      <c r="D37" s="28">
+        <v>11560380</v>
+      </c>
+      <c r="E37" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D37*1000</f>
+        <v>2.9462699323032635</v>
+      </c>
+      <c r="F37" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C37</f>
+        <v>8.3347181725519325E-3</v>
+      </c>
+      <c r="G37" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C37*1000</f>
+        <v>8.3347181725519324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.5">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="13">
+        <v>16290</v>
+      </c>
+      <c r="C38" s="20">
+        <v>1056366.5776049825</v>
+      </c>
+      <c r="D38" s="28">
+        <v>3818851</v>
+      </c>
+      <c r="E38" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D38*1000</f>
+        <v>4.2656809600584049</v>
+      </c>
+      <c r="F38" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C38</f>
+        <v>1.5420783225585426E-2</v>
+      </c>
+      <c r="G38" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C38*1000</f>
+        <v>15.420783225585426</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.5">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="13">
+        <v>46980</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1357126.4999157819</v>
+      </c>
+      <c r="D39" s="28">
+        <v>3900343</v>
+      </c>
+      <c r="E39" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D39*1000</f>
+        <v>12.045094495535393</v>
+      </c>
+      <c r="F39" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C39</f>
+        <v>3.46172593364844E-2</v>
+      </c>
+      <c r="G39" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C39*1000</f>
+        <v>34.617259336484402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.5">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="13">
+        <v>47440</v>
+      </c>
+      <c r="C40" s="20">
+        <v>3917586.210452538</v>
+      </c>
+      <c r="D40" s="28">
+        <v>12758729</v>
+      </c>
+      <c r="E40" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D40*1000</f>
+        <v>3.7182387054384494</v>
+      </c>
+      <c r="F40" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C40</f>
+        <v>1.2109497392405818E-2</v>
+      </c>
+      <c r="G40" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C40*1000</f>
+        <v>12.109497392405817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.5">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="13">
+        <v>4340</v>
+      </c>
+      <c r="C41" s="20">
+        <v>338350.5966472798</v>
+      </c>
+      <c r="D41" s="28">
+        <v>1053252</v>
+      </c>
+      <c r="E41" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D41*1000</f>
+        <v>4.1205713352550006</v>
+      </c>
+      <c r="F41" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C41</f>
+        <v>1.2826931718179642E-2</v>
+      </c>
+      <c r="G41" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C41*1000</f>
+        <v>12.826931718179642</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.5">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="13">
+        <v>13490</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1919529.2071378701</v>
+      </c>
+      <c r="D42" s="28">
+        <v>4727273</v>
+      </c>
+      <c r="E42" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D42*1000</f>
+        <v>2.85365368151998</v>
+      </c>
+      <c r="F42" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C42</f>
+        <v>7.0277649070598809E-3</v>
+      </c>
+      <c r="G42" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C42*1000</f>
+        <v>7.0277649070598809</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15">
-        <v>640</v>
-      </c>
-      <c r="E38" s="18" t="s">
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.5">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1170</v>
+      </c>
+      <c r="C43" s="19">
+        <v>317696.59253930184</v>
+      </c>
+      <c r="D43" s="28">
+        <v>834708</v>
+      </c>
+      <c r="E43" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D43*1000</f>
+        <v>1.4016877758449662</v>
+      </c>
+      <c r="F43" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C43</f>
+        <v>3.6827590458190411E-3</v>
+      </c>
+      <c r="G43" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C43*1000</f>
+        <v>3.6827590458190413</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="15">
-        <v>34060</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="15">
-        <v>16290</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.5">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="13">
+        <v>22040</v>
+      </c>
+      <c r="C44" s="20">
+        <v>2346546.7166044912</v>
+      </c>
+      <c r="D44" s="28">
+        <v>6451365</v>
+      </c>
+      <c r="E44" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D44*1000</f>
+        <v>3.4163312725291473</v>
+      </c>
+      <c r="F44" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C44</f>
+        <v>9.3925255542716846E-3</v>
+      </c>
+      <c r="G44" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C44*1000</f>
+        <v>9.3925255542716855</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.5">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="13">
+        <v>149000</v>
+      </c>
+      <c r="C45" s="20">
+        <v>7784066.7289153757</v>
+      </c>
+      <c r="D45" s="28">
+        <v>26092033</v>
+      </c>
+      <c r="E45" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D45*1000</f>
+        <v>5.7105554021030098</v>
+      </c>
+      <c r="F45" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C45</f>
+        <v>1.9141665300287259E-2</v>
+      </c>
+      <c r="G45" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C45*1000</f>
+        <v>19.141665300287258</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="15">
-        <v>46980</v>
-      </c>
-      <c r="E41" s="19" t="s">
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.5">
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="13">
+        <v>28050</v>
+      </c>
+      <c r="C46" s="20">
+        <v>990756.34204912698</v>
+      </c>
+      <c r="D46" s="28">
+        <v>2858111</v>
+      </c>
+      <c r="E46" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D46*1000</f>
+        <v>9.8141744669818625</v>
+      </c>
+      <c r="F46" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C46</f>
+        <v>2.8311703705056004E-2</v>
+      </c>
+      <c r="G46" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C46*1000</f>
+        <v>28.311703705056004</v>
+      </c>
+      <c r="L46" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="15">
-        <v>47440</v>
-      </c>
-      <c r="E42" s="19" t="s">
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.5">
+      <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="13">
+        <v>5260</v>
+      </c>
+      <c r="C47" s="20">
+        <v>180025.49850106449</v>
+      </c>
+      <c r="D47" s="28">
+        <v>626358</v>
+      </c>
+      <c r="E47" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D47*1000</f>
+        <v>8.3977533614961413</v>
+      </c>
+      <c r="F47" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C47</f>
+        <v>2.9218083237074872E-2</v>
+      </c>
+      <c r="G47" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C47*1000</f>
+        <v>29.218083237074872</v>
+      </c>
+      <c r="L47" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="15">
-        <v>4340</v>
-      </c>
-      <c r="E43" s="21" t="s">
+    </row>
+    <row r="48" spans="1:27" ht="15.5">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="13">
+        <v>56610</v>
+      </c>
+      <c r="C48" s="20">
+        <v>2978390.8901524711</v>
+      </c>
+      <c r="D48" s="28">
+        <v>8185131</v>
+      </c>
+      <c r="E48" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D48*1000</f>
+        <v>6.9161996307695013</v>
+      </c>
+      <c r="F48" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C48</f>
+        <v>1.9006907450318584E-2</v>
+      </c>
+      <c r="G48" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C48*1000</f>
+        <v>19.006907450318586</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="15">
-        <v>13490</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="15">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+    </row>
+    <row r="49" spans="1:28" ht="15.5">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="13">
+        <v>104050</v>
+      </c>
+      <c r="C49" s="20">
+        <v>2977073.9788036803</v>
+      </c>
+      <c r="D49" s="28">
+        <v>6899123</v>
+      </c>
+      <c r="E49" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D49*1000</f>
+        <v>15.081627041581951</v>
+      </c>
+      <c r="F49" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C49</f>
+        <v>3.4950424726029779E-2</v>
+      </c>
+      <c r="G49" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C49*1000</f>
+        <v>34.95042472602978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.5">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1870</v>
+      </c>
+      <c r="C50" s="19">
+        <v>359429.67017915833</v>
+      </c>
+      <c r="D50" s="28">
+        <v>1853881</v>
+      </c>
+      <c r="E50" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D50*1000</f>
+        <v>1.008694732833445</v>
+      </c>
+      <c r="F50" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C50</f>
+        <v>5.2026867984156545E-3</v>
+      </c>
+      <c r="G50" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C50*1000</f>
+        <v>5.2026867984156544</v>
+      </c>
+      <c r="L50" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="15">
-        <v>22040</v>
-      </c>
-      <c r="E46" s="18" t="s">
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+    </row>
+    <row r="51" spans="1:28" ht="15.5">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="13">
+        <v>15700</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1825449.5649958292</v>
+      </c>
+      <c r="D51" s="28">
+        <v>5724692</v>
+      </c>
+      <c r="E51" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D51*1000</f>
+        <v>2.7425056230099369</v>
+      </c>
+      <c r="F51" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C51</f>
+        <v>8.6006210749711241E-3</v>
+      </c>
+      <c r="G51" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C51*1000</f>
+        <v>8.6006210749711247</v>
+      </c>
+      <c r="L51" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="15">
-        <v>149000</v>
-      </c>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="15">
-        <v>28050</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="15">
-        <v>5260</v>
-      </c>
-      <c r="W49" s="12"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="15">
-        <v>56610</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="15">
-        <v>104050</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="15">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="15">
-        <v>15700</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="4" t="s">
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+    </row>
+    <row r="52" spans="1:28" ht="14.65" customHeight="1">
+      <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="15">
+      <c r="B52" s="13">
         <v>840</v>
       </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B55" s="5" t="s">
+      <c r="C52" s="19">
+        <v>186582.65448507064</v>
+      </c>
+      <c r="D52" s="28">
+        <v>575251</v>
+      </c>
+      <c r="E52" s="29">
+        <f>Table23[[#This Row],[EV Registration Count]]/D52*1000</f>
+        <v>1.4602321421431688</v>
+      </c>
+      <c r="F52" s="22">
+        <f>Table23[[#This Row],[EV Registration Count]]/C52</f>
+        <v>4.5020262055882176E-3</v>
+      </c>
+      <c r="G52" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C52*1000</f>
+        <v>4.5020262055882174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.5">
+      <c r="A53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="16">
-        <f>SUM(C4:C54)</f>
+      <c r="B53" s="14">
+        <f>SUM(B2:B52)</f>
         <v>2442270</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
+      <c r="C53" s="27">
+        <f>SUM(C2:C52)</f>
+        <v>102973881.03858075</v>
+      </c>
+      <c r="D53" s="30">
+        <f>SUM(D2:D52)</f>
+        <v>314107084</v>
+      </c>
+      <c r="E53" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D53*1000</f>
+        <v>7.7752783187787005</v>
+      </c>
+      <c r="F53" s="23">
+        <f>Table23[[#This Row],[EV Registration Count]]/C53</f>
+        <v>2.3717373525864935E-2</v>
+      </c>
+      <c r="G53" s="25">
+        <f>Table23[[#This Row],[EV Registration Count]]/C53*1000</f>
+        <v>23.717373525864936</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="E41:Q41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E38:S38"/>
-    <mergeCell ref="E43:U43"/>
-    <mergeCell ref="E37:F37"/>
+  <mergeCells count="1">
+    <mergeCell ref="L51:R51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3842,503 +5082,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01BE920-38E1-4128-BC42-302E23445879}">
-  <dimension ref="A2:F55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23">
-        <f>MAX(B4:B54)</f>
-        <v>903620</v>
-      </c>
-      <c r="E3" s="23">
-        <f>MIN(B4:B54)</f>
-        <v>640</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(B4:B54)</f>
-        <v>47887.647058823532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15">
-        <v>8730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15">
-        <v>65780</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15">
-        <v>903620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15">
-        <v>59910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <v>22030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <v>5390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15">
-        <v>5860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15">
-        <v>167990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15">
-        <v>60120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
-        <v>19760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15">
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15">
-        <v>66880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15">
-        <v>17710</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15">
-        <v>6220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15">
-        <v>7550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15">
-        <v>4990</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15">
-        <v>46060</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15">
-        <v>49440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15">
-        <v>33150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15">
-        <v>24330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15">
-        <v>17870</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="15">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="15">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="15">
-        <v>32950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="15">
-        <v>6990</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="15">
-        <v>87030</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="15">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="15">
-        <v>84670</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="15">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="15">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="15">
-        <v>34060</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="15">
-        <v>16290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="15">
-        <v>46980</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="15">
-        <v>47440</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="15">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="15">
-        <v>13490</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="15">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="15">
-        <v>22040</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="15">
-        <v>149000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="15">
-        <v>28050</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="15">
-        <v>5260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="15">
-        <v>56610</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="15">
-        <v>104050</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="15">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="15">
-        <v>15700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="15">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="16">
-        <f>SUM(B4:B54)</f>
-        <v>2442270</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426088F7-AD74-FA46-B5FF-90124E3BA892}">
   <dimension ref="B2:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:3" ht="15.5">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -4346,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4354,7 +5116,7 @@
         <v>8730</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -4362,7 +5124,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +5132,7 @@
         <v>65780</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -4378,7 +5140,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -4386,7 +5148,7 @@
         <v>903620</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -4394,7 +5156,7 @@
         <v>59910</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -4402,7 +5164,7 @@
         <v>22030</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -4410,7 +5172,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -4418,7 +5180,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
@@ -4426,7 +5188,7 @@
         <v>167990</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +5196,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -4442,7 +5204,7 @@
         <v>19760</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -4450,7 +5212,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3">
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
@@ -4458,7 +5220,7 @@
         <v>66880</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -4466,7 +5228,7 @@
         <v>17710</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -4474,7 +5236,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -4482,7 +5244,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3">
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
@@ -4490,7 +5252,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -4498,7 +5260,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -4506,7 +5268,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -4514,7 +5276,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3">
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
@@ -4522,7 +5284,7 @@
         <v>49440</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -4530,7 +5292,7 @@
         <v>33150</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -4538,7 +5300,7 @@
         <v>24330</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3">
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
@@ -4546,7 +5308,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -4554,7 +5316,7 @@
         <v>17870</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3">
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
@@ -4562,7 +5324,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3">
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -4570,7 +5332,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3">
       <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
@@ -4578,7 +5340,7 @@
         <v>32950</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -4586,7 +5348,7 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -4594,7 +5356,7 @@
         <v>87030</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -4602,7 +5364,7 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -4610,7 +5372,7 @@
         <v>84670</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -4618,7 +5380,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3">
       <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
@@ -4626,7 +5388,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3">
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -4634,7 +5396,7 @@
         <v>34060</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3">
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -4642,7 +5404,7 @@
         <v>16290</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3">
       <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
@@ -4650,7 +5412,7 @@
         <v>46980</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3">
       <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
@@ -4658,7 +5420,7 @@
         <v>47440</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
         <v>45</v>
       </c>
@@ -4666,7 +5428,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3">
       <c r="B44" s="8" t="s">
         <v>46</v>
       </c>
@@ -4674,7 +5436,7 @@
         <v>13490</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3">
       <c r="B45" s="8" t="s">
         <v>47</v>
       </c>
@@ -4682,7 +5444,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3">
       <c r="B46" s="8" t="s">
         <v>49</v>
       </c>
@@ -4690,7 +5452,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3">
       <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
@@ -4698,7 +5460,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
         <v>51</v>
       </c>
@@ -4706,7 +5468,7 @@
         <v>28050</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
         <v>52</v>
       </c>
@@ -4714,7 +5476,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
         <v>53</v>
       </c>
@@ -4722,7 +5484,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3">
       <c r="B51" s="8" t="s">
         <v>54</v>
       </c>
@@ -4730,7 +5492,7 @@
         <v>104050</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3">
       <c r="B52" s="8" t="s">
         <v>55</v>
       </c>
@@ -4738,7 +5500,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3">
       <c r="B53" s="8" t="s">
         <v>56</v>
       </c>
@@ -4746,7 +5508,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3">
       <c r="B54" s="8" t="s">
         <v>57</v>
       </c>
@@ -4754,8 +5516,8 @@
         <v>840</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C56" s="14"/>
+    <row r="56" spans="2:3">
+      <c r="C56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4766,12 +5528,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4940,15 +5699,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4973,17 +5743,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>